--- a/data/new_en_pork_1126.xlsx
+++ b/data/new_en_pork_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>prompt</t>
   </si>
@@ -25,10 +25,10 @@
     <t>links</t>
   </si>
   <si>
-    <t>pork、minced onion、chopped green onion、ginger</t>
-  </si>
-  <si>
-    <t>pork skin、green onion、lard、pump、broth</t>
+    <t>pork mince、minced onion、chopped green onion、minced ginger</t>
+  </si>
+  <si>
+    <t>pigskin、shallots、lard、ground pork belly、stock</t>
   </si>
   <si>
     <t>pork leg、onion、green pepper</t>
@@ -37,65 +37,211 @@
     <t>pork slices、green pepper、onion、ginger、taibai powder water</t>
   </si>
   <si>
-    <t>pork belly、ginger、minced garlic、red sauce、yolk、squash powder、cucumber slices</t>
-  </si>
-  <si>
-    <t>fan、pork、scallion、ginger、minced garlic、chopped green onion</t>
-  </si>
-  <si>
-    <t>pork steak、garlic、garlic、squash powder</t>
-  </si>
-  <si>
-    <t>pork plum meat</t>
-  </si>
-  <si>
-    <t>Onion pancake
-Ingredients:pork,minced onion,chopped green onion,ginger
-Seasonings:a. salt,granulated sugar,black pepper powder,rice wine,taibai powder,b. tomato sauce
-Method:1. Put the pork meat into the steel basin and add salt until it is sticky. 2. Method 1 Add the minced onion, onion and ginger to mix well, and then add fine sugar, black pepper, rice wine and Taibai powder to stir until well. 3. Divide the method of mixed pork into 8 copies and form a round cake shape. 4. Pour 2 tablespoons of salad oil in the pan, discharge the meat cake of method 3 into the pan, cover the lid, and use low heat to slightly scorched on both sides. 5. Method 4 After frying, take out the dish and eat tomato sauce.</t>
-  </si>
-  <si>
-    <t>Dried rice
-Ingredients:pork skin,green onion,lard,pump,broth
+    <t>pork belly、minced ginger、minced garlic、red lees sauce、yolk、squash powder、gherkin slices</t>
+  </si>
+  <si>
+    <t>fan、pork mince、minced green onion、minced ginger、minced garlic、chopped green onion</t>
+  </si>
+  <si>
+    <t>pork chop、garlic paste、garlic seeds、squash powder</t>
+  </si>
+  <si>
+    <t>pork plum blossoms</t>
+  </si>
+  <si>
+    <t>pork ribs</t>
+  </si>
+  <si>
+    <t>pork mince、canned melon、minced garlic、stock</t>
+  </si>
+  <si>
+    <t>white rice、shredded pork、mushroom、shrimp、sliced shallots、crispy onion、stock</t>
+  </si>
+  <si>
+    <t>pork plum slices、kimchi、onion</t>
+  </si>
+  <si>
+    <t>oily surface、chinese chives、onion、carrot、shredded pork、crispy onion、shrimp</t>
+  </si>
+  <si>
+    <t>pork mince、diced onion、minced garlic、minced chili pepper、basil、salad oil</t>
+  </si>
+  <si>
+    <t>pork tenderloin、green onions、ginger、all-purpose flour、baking powder、taibai powder、salad oil、water</t>
+  </si>
+  <si>
+    <t>pig's feet、ginger slices、scallions、peppercorns、white peppercorns、minced green onion、shredded ginger、water、soy sauce、sugar、boiling water、minced chili pepper、minced garlic</t>
+  </si>
+  <si>
+    <t>pork short ribs、onion、ginger、qingjiang cuisine、red yeast rice</t>
+  </si>
+  <si>
+    <t>lean meat、fatty meat、water chestnuts、minced ginger、minced green onion、egg、chinese cabbage、onion、ginger</t>
+  </si>
+  <si>
+    <t>shredded pork、red chili、green onions、ginger</t>
+  </si>
+  <si>
+    <t>plum pork with skin、scallions、chili pepper segments、garlic、cola、water</t>
+  </si>
+  <si>
+    <t>large muscle、thyme、minced garlic、liquor、black pepper powder、sugar、salt、flour、cream</t>
+  </si>
+  <si>
+    <t>pig's feet、green onions、ginger slices、salad oil、red chili、garlic seeds、water、braised buns、raw peanuts、star anise</t>
+  </si>
+  <si>
+    <t>inner muscle、green pepper、red bell pepper、yellow bell pepper、hot white rice、cooked white sesame seeds</t>
+  </si>
+  <si>
+    <t>plum meat、honey</t>
+  </si>
+  <si>
+    <t>Fried meatloaf with onions
+Ingredients:pork mince,minced onion,chopped green onion,minced ginger
+Seasonings:a.salt,fine sugar,black pepper powder,rice wine,taibai powder,b.ketchup
+Method:1. Put the minced pork into a steel basin, add salt and stir until it becomes sticky. 2. In step 1, add minced onion, chopped green onion and minced ginger and mix well. Then add fine sugar, black pepper, rice wine and Taibai powder and mix until even. 3. Divide the minced pork mixed in Step 2 into 8 portions and shape into a round cake shape. 4. Pour 2 tablespoons of salad oil into the pan, place the meat patties from step 3 into the pan, cover the pan, and turn to low heat until both sides are slightly caramelized. 5. Method 4: After frying, take it out and put it on a plate, dip it in tomato sauce and serve.</t>
+  </si>
+  <si>
+    <t>Pork rice
+Ingredients:pigskin,shallots,lard,ground pork belly,stock
 Seasonings:soy sauce,crystal sugar,rice wine
-Method:1. Wash and cut the pork skin, put it in boiling water for about 5 minutes, and then remove the cold water and set aside. 2. After washing and removed the head and tail, cut the end for later use. 3. Hot pot, add lard, and then add the red shallots of the method 2 to stir -fry, fry it with low heat until it is golden yellow slightly burnt, take out 20 grams of red onion crisp for use, and continue to add the crushed blade heart.Stir -fry the meat until the meat color becomes white, and then add all seasonings and fry. 4. Take a sand pot, pour the material 3, add the broth and cook, boil and roll, add the pork skin of method 1, turn over low heat and cover the lid.Gram -green onion crispy, cook for about 10 minutes.</t>
-  </si>
-  <si>
-    <t>Black Pepper Pig
+Method:1. Wash the pork skin, cut into large pieces, blanch in boiling water for about 5 minutes, then remove and rinse with cold water, set aside. 2. Wash the shallots, cut off the heads and tails, and chop into small pieces and set aside. 3. Heat the pan, add lard, then add the minced shallots from step 2 and saute until fragrant, stir-fry over low heat until golden brown and slightly charred, take out 20 grams of crispy shallots and set aside, and add the rest of the chopped red onions. Stir-fry the meat until the color of the meat turns white and the water content is reduced, then add all the seasonings and stir-fry until fragrant and turn off the heat. 4. Take a casserole, pour the ingredients from step 3, then add the stock and bring to a boil. After boiling, add the pork skin from step 1, turn to low heat and cover the pot, continue cooking for about 1 hour, then add the 20 pieces taken out previously. gram shallots and cook for about 10 minutes.</t>
+  </si>
+  <si>
+    <t>Black pepper pork fillet
 Ingredients:pork leg,onion,green pepper
-Seasonings:a. fine black pepper grains,soy sauce,oyster sauce,rice wine,granulated sugar,water,b. taibai powder water,sesame oil
+Seasonings:a. fine black peppercorns,soy sauce,oyster sauce,rice wine,fine sugar,water,b. taibai powder water,sesame oil
 Marinade:salt,taibai powder
-Method:1. Wash and cut the pork leg meat, put it in a large bowl, add all the marinade and mix well and pick it up for 10 minutes.spare. 2. Wash the onion, peel and cut the strip; wash the green pepper, remove the scoop and seeds and cut the strip; set aside. 3. Pour the appropriate amount of oil in the hot pot, add the onion strips and green peppers to stir -fry the aroma in medium heat, add all seasonings A and method 1 pork leg strip and stir -fry.Pour it with sesame oil.</t>
-  </si>
-  <si>
-    <t>Sauce
+Method:1. Wash the pork leg and cut into thick strips, put it into a large bowl, add all the marinade ingredients, mix well and marinate for 10 minutes, put it in a hot oil pan and fry over medium-low heat until it changes color and is cooked through, remove and drain the oil spare. 2. Wash the onions, peel and cut into strips; wash the green peppers, remove the stems and seeds and cut into strips; set aside. 3. Pour an appropriate amount of oil into the hot pot and heat it up. Add onion strips and green pepper strips and stir-fry over medium heat until fragrant. Add all Seasoning A and Method 1 pork leg strips and stir-fry evenly. Finally, add well-mixed cornstarch water to thicken. Drizzle with sesame oil and serve.</t>
+  </si>
+  <si>
+    <t>Pork slices in sauce
 Ingredients:pork slices,green pepper,onion,ginger,taibai powder water
 Seasonings:sweet noodle sauce,soy sauce,rice wine,sesame oil,sugar
-Method:1. Slice green pepper and ginger; cut onion sections, spare. 2. Hot pot, pour more oil, wait for the oil temperature to be about 60 ° C, put the pork slices of oil, remove the oil for later use. 3. Method 2 Stay a little oil in the pot, add ginger slices 1 and onion section of method 1, and stir -fry the green peppers. 4. Add the pork slices of Method 2 and stir all the ingredients.</t>
-  </si>
-  <si>
-    <t>Red meat
-Ingredients:pork belly,ginger,minced garlic,red sauce,yolk,squash powder,cucumber slices
-Seasonings:soy sauce,salt,rice wine,sugar,pepper,spiced powder
-Method:1. Wash the pork belly and drain the water, mix well with the ginger, minced garlic, and all seasonings, and then wipe the surface of the pork belly with red sauce, which is the red meat. 2. Seal the red meat of the method 1 with plastic wrap, put it in the refrigerator, refrigerate for about 24 hours, and wait for the taste. 3. Remove the red meat of Method 2, tear off the plastic wrap, scrape the excess red sauce on the surface of the meat with your hands, mix well with the egg yolk, then wrap it in the melon powder evenly, put it for about 5 minutes, wait for the sauce to absorb the juice,spare. 4. Hot oil pan, when the oil temperature is hot to about 150 ° C, put the red pork of Method 3, fry it slowly with low heat, fry until it is cooked, turn the heat slightly to force the oil, and then fish again.Dried oil. 5. After cold, cut the red meat of the method 4, add the taste of the cucumber slices when eating.</t>
-  </si>
-  <si>
-    <t>Ant
-Ingredients:fan,pork,scallion,ginger,minced garlic,chopped green onion
-Seasonings:a. spicy douban sauce,sesame oil,b. soy sauce,vinegar,sugar,water,liquor,taibai powder water
-Method:1. Fans soak water to soft settlement. 2. Hot pot, add a little oil, stir -fry the pork grown meat and spicy bean paste with a large heat, ginger, ginger, garlic slices. 3. Boil all seasonings until boiling, and then add fans who add method 1 and stir -fry. 4. Add a little sesame oil and green onion before the pan.</t>
-  </si>
-  <si>
-    <t>Desktop frying ribs
-Ingredients:pork steak,garlic,garlic,squash powder
-Seasonings:soy sauce,spiced powder,cooking wine,water,protein
-Method:1. After the pork steak is loosening with the back of the knife or the hammer (about the thickness? Cm), add all the seasonings to mix well and marinate for 30 minutes. 2. Add sweet potato powder to Method 1, mix well with pork steaks into thick shape and backup. 3. The hot oil pan, when the oil temperature is heated to about 180 ° C, the pork row of method 2 is fried for about 5 minutes to become golden in the epidermis, and the drained oil can be removed.</t>
-  </si>
-  <si>
-    <t>Hong Kong -style pork roast meat
-Ingredients:pork plum meat
-Seasonings:red onion,salt,sugar,sesame oil,light soy sauce,liquor,sesame sauce,oyster sauce,sweet noodle sauce
-Method:1. Boil all brushes in low heat for later use. 2. Cut the plum meat into a long strip of 5 cm width per piece, mix well with all the marinade, refrigerate for 2 hours until the flavor is available. 3. Preheat the oven to 220 ° C to 250 ° C, then put the plum meat of the method 2 into the oven, bake it until both sides are cooked, and evenly brush the brush of the method 1 on the plum meat, put it back in the oven and roast it for continuous bakingIn 3 to 5 minutes, you can remove it and hang it.</t>
+Method:1. Slice green pepper and ginger; cut green onion into sections and set aside. 2. Heat the pan, pour in a little more oil, wait until the oil temperature is about 60°C, add the pork slices and fry them, remove and drain the oil and set aside. 3. For Method 2, leave a little oil in the pot, add the ginger slices and green onions from Method 1 and saute until fragrant, then add the green pepper and stir-fry evenly. 4. Add the pork slices from step 2 and all the ingredients, stir-fry evenly, and thicken with white flour.</t>
+  </si>
+  <si>
+    <t>Red glutinous rice meat
+Ingredients:pork belly,minced ginger,minced garlic,red lees sauce,yolk,squash powder,gherkin slices
+Seasonings:soy sauce,salt,rice wine,sugar,pepper,allspice
+Method:1. Wash the pork belly, drain the water, mix it with minced ginger, minced garlic, and all seasonings, and then spread the red glutinous rice paste evenly on the surface of the pork belly, which is the red glutinous rice pork. 2. Seal the red pork in step 1 with plastic wrap, put it in the refrigerator, and refrigerate it for about 24 hours until it tastes better. 3. Take out the red glutinous rice meat from Step 2, tear off the plastic wrap, scrape off the excess red glutinous rice sauce on the surface of the meat with your hands, mix it with the egg yolk, then evenly coat it with sweet potato powder, and leave it for about 5 minutes until the juice is absorbed. spare. 4. Heat the oil pan. When the oil temperature reaches about 150°C, add the red glutinous rice pork from Step 3 and fry slowly over low heat. When it is almost cooked, turn to high heat and fry slightly to release the oil, then fish it out. Drain the oil. 5. After cooling, slice the red glutinous rice meat from step 4 and add cucumber slices to enhance the flavor when eating.</t>
+  </si>
+  <si>
+    <t>Ants climbing the tree
+Ingredients:fan,pork mince,minced green onion,minced ginger,minced garlic,chopped green onion
+Seasonings:a. spicy bean paste,sesame oil,b. soy sauce paste,vinegar,sugar,water,liquor,taibai powder water
+Method:1. Soak the vermicelli in water until soft and set aside. 2. Heat a pan, add a little oil, sauté minced shallots, minced ginger and garlic over high heat, add minced pork and spicy bean paste and stir-fry until fragrant. 3. Add all the seasonings and bring to a boil, then add the vermicelli from Step 1 and stir-fry evenly. 4. Add a little sesame oil and chopped green onion before serving.</t>
+  </si>
+  <si>
+    <t>Taiwanese Fried Pork Ribs
+Ingredients:pork chop,garlic paste,garlic seeds,squash powder
+Seasonings:soy sauce,allspice,cooking wine,water,protein
+Method:1. Use the back of a knife or a meat mallet to pat the pork chops loose (about ?cm thick), add all the seasonings, mix well and marinate for 30 minutes. 2. Add sweet potato powder to method 1, mix with pork chops until thick, set aside. 3. Heat the oil in a pan. When the oil temperature reaches about 180°C, add the pork chops from step 2 and fry over medium heat for about 5 minutes until the skin turns golden brown. Remove and drain the oil.</t>
+  </si>
+  <si>
+    <t>Hong Kong Style BBQ Pork
+Ingredients:pork plum blossoms
+Seasonings:minced shallots,salt,sugar,sesame oil,light soy sauce,liquor,tahini,oyster sauce,sweet noodle sauce
+Method:1. Boil all brush ingredients over low heat and set aside. 2. Cut the plum blossom pork into long strips with a width of 5 cm each, mix well with all the marinade, and refrigerate for 2 hours until the flavor becomes fragrant and set aside. 3. Preheat the oven to 220℃~250℃, then put the plum blossom pork in Step 2 into the oven, bake until both sides are cooked, take it out, brush the brush from Step 1 evenly on the plum blossom meat, and put it back in the oven to continue baking. After 3 to 5 minutes, you can take it out and hang it, wait for it to cool and slice it for consumption.</t>
+  </si>
+  <si>
+    <t>Sweet and sour short ribs
+Ingredients:pork ribs
+Seasonings:soy sauce,sugar,zhenjiang vinegar
+Method:1. Cut the pork ribs into 2 cm long pieces, fry them in hot oil over medium heat until golden brown and remove. 2. After frying, add marinade ingredients and water to the fried ribs and simmer. When the sauce is almost dry, add Zhenjiang vinegar and wait until the sauce is completely dry before serving.</t>
+  </si>
+  <si>
+    <t>Melon meat
+Ingredients:pork mince,canned melon,minced garlic,stock
+Seasonings:soy sauce,rice wine,crystal sugar,chicken powder,pepper
+Method:1. Take out the canned flower melon and cut it into cubes, and reserve the soup for later use. 2. Heat a pot, add two tablespoons of oil, add minced garlic and saute until fragrant, add minced pork and stir-fry until fragrant. 3. Add all the seasonings and stir-fry until fragrant, then put into a casserole. 4. Pour the broth from step 3 into the casserole and the melon soup from step 1 and bring to a boil, then turn to low heat and simmer for another 15 minutes. 5. Finally add the diced flower melon from Step 1 and cook over low heat for 15 minutes.</t>
+  </si>
+  <si>
+    <t>Taiwanese salty porridge
+Ingredients:white rice,shredded pork,mushroom,shrimp,sliced shallots,crispy onion,stock
+Seasonings:salt,fresh chicken powder,fine sugar,cooking rice wine
+Marinade:salt,taibai powder,cooking rice wine
+Method:1. Wash and drain the pork shreds, put them into a large bowl, add all the marinade ingredients, mix well and marinate for about 1 minute, then put it into a hot oil pan and stir-fry until it changes color, immediately remove and drain the oil and set aside. 2. Wash and soak the mushrooms until soft and cut into shreds; wash and soak the dried shrimps in water with a little cooking rice wine until soft, remove and drain; set aside. 3. Pour a little oil into a hot pot and heat it up. Add the sliced shallots and sauté over low heat until fragrant. Add the method 2 and stir-fry until fragrant. Add the method 1 and stir-fry evenly. Pour in the stock and cook over medium heat until it boils. Then add the white rice. Turn to low heat and cook until slightly thickened. Finally, season with all the seasonings and sprinkle with fried scallions.</t>
+  </si>
+  <si>
+    <t>Korean kimchi roasted pork
+Ingredients:pork plum slices,kimchi,onion
+Seasonings:soy sauce,sugar
+Method:1. Cut onions into shreds; cut kimchi into small pieces and set aside. 2. Take a pot, heat it up with a little salad oil, add onions and saute until fragrant. 3. Add Korean kimchi, stir-fry until fragrant, then add plum pork slices and stir-fry until meat color turns white. 4. Add soy sauce and sugar and stir-fry until fragrant.</t>
+  </si>
+  <si>
+    <t>Taiwanese fried noodles
+Ingredients:oily surface,chinese chives,onion,carrot,shredded pork,crispy onion,shrimp
+Seasonings:soy sauce,chicken powder,white pepper,black vinegar,water,sugar
+Method:1. Wash and cut leeks into sections; wash and cut onions and carrots into shreds and set aside. 2. Take a pot, add appropriate amount of oil to heat, add fried onions, dried shrimps, shredded onions and carrots and stir-fry until fragrant. 3. Add pork shreds, oil noodles and seasonings, stir-fry evenly, cover and simmer until the water is slightly dry, then serve. 4. Add pork shreds and seasonings and simmer until the water dries up, then add the leek segments and stir-fry evenly.</t>
+  </si>
+  <si>
+    <t>Pork
+Ingredients:pork mince,diced onion,minced garlic,minced chili pepper,basil,salad oil
+Seasonings:fish sauce,thai sweet soy sauce,sugar
+Marinade:soy sauce,rice wine,pepper,sesame oil,taibai powder
+Method:1. Add all the marinade to the minced pork and marinate for about 10 minutes, set aside. 2. Remove the old branches from the nine-story pagoda, wash them and set aside. 3. Heat the pot, add salad oil, add the minced pork from Step 1 and stir-fry until the meat turns white, then add minced onion, minced garlic, and minced chili and stir-fry for about 3 minutes, then add all the seasonings and stir-fry for another 1 minute, and finally add Stir-fry the nine-layer pagoda in method 2 and serve.</t>
+  </si>
+  <si>
+    <t>Sweet and Sour Muscle
+Ingredients:pork tenderloin,green onions,ginger,all-purpose flour,baking powder,taibai powder,salad oil,water
+Seasonings:ketchup,white vinegar,fine sugar,rice wine
+Method:1. Wash the pork belly and cut into strips; wash the green onions and cut into small pieces; wash, peel and slice the ginger; put the above ingredients into a large bowl, mix well and marinate for about 5 minutes and set aside. 2. Put the batter ingredients into a large bowl and mix thoroughly and set aside. 3. Pour an appropriate amount of oil into the pot and heat it up. Dip the marinated pork muscle strips from Step 1 evenly into the batter from Step 2. Put them in the pot and fry them over medium-low heat until golden brown. Remove and drain the oil and set aside. 4. Put all the seasonings into a pot and cook over medium-low heat. Add the pork muscle strips from Step 3 and stir-fry until the sauce is slightly dry.</t>
+  </si>
+  <si>
+    <t>Braised pork trotters
+Ingredients:pig's feet,ginger slices,scallions,peppercorns,white peppercorns,minced green onion,shredded ginger,water,soy sauce,sugar,boiling water,minced chili pepper,minced garlic
+Seasonings:rice wine,salt
+Method:1. Remove the hair from the pig's feet, wash them, blanch them in boiling water for about 5 minutes, take them out and soak them in ice water until they are cold, and set aside. 2. Take a casserole, add the pig trotters, water, rice wine, ginger slices, green onions, peppercorns, and white peppercorns from step 1 and bring to a boil. Turn to low heat and simmer for about 1 hour and 10 minutes. Turn off the heat. Simmer for about 10 minutes. 3. Take out the pig's feet from Step 2, remove the bones, cut into small pieces, put into a bowl with a little salt and the soup from Step 2, and finally add chopped green onion and shredded ginger. 4. Mix all the dipping sauce ingredients evenly. The pork trotters from method 3 can be eaten together.</t>
+  </si>
+  <si>
+    <t>Wuxi Spare Ribs
+Ingredients:pork short ribs,onion,ginger,qingjiang cuisine,red yeast rice
+Seasonings:a.soy sauce,fine sugar,shaoxing wine,cinnamon,star anise,water,b. taibai powder water,sesame oil
+Method:1. Chop the pork chops into small pieces of about 8 cm, blanch in boiling water, wash and drain and set aside. 2. Wash the green vegetables and cut them in half. Cut green onions into small sections and pat loose ginger. Set aside. 3. Heat the salad oil in the pan, sauté the green onions and ginger from Step 2 over low heat until fragrant. Add all seasoning A, red yeast rice and pork short ribs from step 1. 4. Method 3: Bring to a boil, then turn down the heat and cover the pot, simmer over low heat for about 30 minutes until the water dries up. 5. Blanch the Qingjiang vegetables from Step 2 until cooked and spread them on the bottom of the plate, and place the pork short ribs from Step 4 onto the plate. 6. Boil the remaining soup in the pot of Step 4, thicken it with cornstarch water, sprinkle with sesame oil and pour it on top of Step 5.</t>
+  </si>
+  <si>
+    <t>meat ball with soy sauce
+Ingredients:lean meat,fatty meat,water chestnuts,minced ginger,minced green onion,egg,chinese cabbage,onion,ginger
+Seasonings:a.salt,water,chicken powder,fine sugar,soy sauce,cooking sake,white pepper,sesame oil,b.water,soy sauce,fine sugar
+Method:1. Crush the water chestnuts, cut into granules and set aside. Cut the Chinese cabbage into cubes, wash and set aside. 2. Chop the lean meat into mince and cut the fat pork into granules and set aside. 3. Put the minced meat minced in Step 2 into a steel basin, add salt and stir in the same direction. Pick up the meat and throw it into the basin. Repeat several times until the meat becomes sticky. 4. Add chicken powder, fine sugar and eggs to the meat pounded in step 3, mix well and then add 100cc of water twice, stirring while adding water until the water is absorbed by the meat. 5. Add water chestnuts, minced ginger, minced green onion and other seasonings A to the meat mixed in step 4. Mix well and divide the meat filling into several equal portions. Use your palms to shape into a ball to form a lion head. 6. Heat about 100 ㏄ salad oil in a pan, put the lion head made in step 5 into the pan, and fry over medium heat until the surface is formed and slightly browned. 7. Take a stew pot, smash the green onion and ginger of ingredient B and put them on the bottom of the pot. Then add the fried lion head and seasoning B in order. After it comes to a boil, turn to low heat and simmer for about 30 minutes. , then add the Chinese cabbage processed in Method 1, and cook for about 15 minutes until the Chinese cabbage is soft and tender.</t>
+  </si>
+  <si>
+    <t>Shredded Pork with Beijing Sauce
+Ingredients:shredded pork,red chili,green onions,ginger
+Seasonings:sweet noodle sauce,rice wine,fine sugar,fresh chicken powder,water
+Marinade:salt,taibai powder,sesame oil
+Method:1. Put the shredded pork into a large bowl, add all the marinade ingredients, mix well, and marinate for about 5 minutes. 2. Wash the red pepper, remove the stems and seeds and shred it; wash the green onion and shred it; wash the ginger, peel it and shred it; soak them in water and mix evenly, remove and drain the water, and put it into a plate for later use. 3. Pour an appropriate amount of oil into the pot and heat it up, add the pork shreds from Step 1 and stir-fry over medium heat until completely cooked. Add all the seasonings and stir-fry evenly. Pour evenly into the plate from Step 2.</t>
+  </si>
+  <si>
+    <t>Coke Braised Pork
+Ingredients:plum pork with skin,scallions,chili pepper segments,garlic,cola,water
+Seasonings:salt,soy sauce,rice wine,white pepper
+Method:1. Wash and cut the skinned plum pork into cubes and set aside. 2. Heat the pan, pour 2 tablespoons of oil and sauté until fragrant. Add onion, chili and garlic segments and sauté until fragrant. 3. Add the plum blossom meat pieces and stir-fry until slightly charred, add all the seasonings and stir-fry until fragrant. 4. Pour in cola and water and cook until boiling, then turn to low heat and simmer for about 40 minutes.</t>
+  </si>
+  <si>
+    <t>Tenderloin Pork Chops
+Ingredients:large muscle,thyme,minced garlic,liquor,black pepper powder,sugar,salt,flour,cream
+Method:1. Trim the inner muscle to remove any fat tendons, cut into butterfly slices and pat lightly for later use. 2. Sprinkle white wine, thyme, chopped garlic, black pepper, sugar, and salt evenly on the pork chops in Step 1 and marinate for 10 minutes, then dip in flour and set aside. 3. Heat the butter in the pan over medium heat until it is 80% hot, then turn to medium to low heat and fry the pork chops from step 2. 4. Fry each side for about 2 minutes. Turn to low heat and fry for 2 minutes until the skin turns golden brown and is cooked through.</t>
+  </si>
+  <si>
+    <t>Braised pig's feet
+Ingredients:pig's feet,green onions,ginger slices,salad oil,red chili,garlic seeds,water,braised buns,raw peanuts,star anise
+Seasonings:rice wine,soy sauce,sugar,mushroom msg
+Method:1. Wash the pig's feet and cut each into 4 sections. Blanch them in boiling water until the meat changes color. Remove and cool, then scrape off the skin, wash and drain. Wash the green onions and cut them into sections; then add appropriate amount of green onions to the pig's feet. , ginger, rice wine and 120㏄ soy sauce, marinate for about 20 to 30 minutes and set aside. 2. Heat the pan, pour in the salad oil, add the pig's feet in step 1, turn up the heat, fry until the pig's feet turn color and then remove. 3. Wash the red pepper and cut it into segments, wash the garlic kernels, then put the onion segments, red pepper segments and garlic kernels into the pot in step 2 and fry until golden brown, then remove and set aside. 4. Heat another pan, add a little salad oil, pour soy sauce and sugar into the pan and stir-fry until the sugar dissolves and foams, then add water and bring to a boil. 5. In Step 4, add the braised buns and cook until the marinade releases aroma. 6. Pour the pig trotters from Step 2 into the pot from Step 6 and cook together for about 2 to 3 minutes. Then add the mushrooms and MSG, and put the ingredients from Step 3 into the pot and cook together. 7. Add the raw peanuts and star anise to Step 7 and stir together until boiling. Pour into the prepared casserole and simmer over low heat for about 40 to 70 minutes or until the skin is soft and the flavor is gone.</t>
+  </si>
+  <si>
+    <t>Teriyaki Pork Rice Bowl
+Ingredients:inner muscle,green pepper,red bell pepper,yellow bell pepper,hot white rice,cooked white sesame seeds
+Seasonings:soy sauce,sugar,rice wine
+Method:1. Slice the pork belly; wash and cut the green pepper, red bell pepper and yellow bell pepper into small pieces and set aside. 2. Heat the pan, pour an appropriate amount of oil, add green pepper, red bell pepper and yellow bell pepper and stir-fry briefly, transfer to a plate and set aside. 3. Add an appropriate amount of oil to the original pot, add the pork belly slices and stir-fry until they change color. Add the seasonings and stir-fry thoroughly to infuse the flavor. 4. Spread the green peppers and bell peppers from Step 2 on the hot rice, top with the pork belly slices from Step 3, sprinkle with a little cooked white sesame seeds and serve.</t>
+  </si>
+  <si>
+    <t>Honey BBQ Pork
+Ingredients:plum meat,honey
+Seasonings:soy sauce,red bean curd,fine sugar,allspice,doubanjiang
+Method:1. Cut the plum pork into long strips about 1 cm thick. 2. Mix all seasonings into marinade. Add the plum pork strips from Step 1 to the sauce and marinate for about 2 hours. 3. Spread the plum meat flatly on the pan and cover the pan. Fry over medium heat for about 5 minutes, then turn over and fry again. 4. Fry until the meat is cooked (see when cut), open the lid and wait until the water dries up and the surface is slightly burnt and fragrant, take it out. Brush with honey.</t>
   </si>
   <si>
     <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2665</t>
@@ -120,6 +266,54 @@
   </si>
   <si>
     <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-199</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2677</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-0957</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2009</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2506</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1985</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2876</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1601</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1389</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2549</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-711</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1573</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1881</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-777</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-522</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2573</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2663</t>
   </si>
 </sst>
 </file>
@@ -490,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -523,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -534,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -545,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -556,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -567,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -578,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -589,10 +783,186 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -605,6 +975,22 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
